--- a/data/pca/factorExposure/factorExposure_2012-01-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01690302028470938</v>
+        <v>0.0162139631993592</v>
       </c>
       <c r="C2">
-        <v>-0.03131531626846962</v>
+        <v>-0.02623898106268582</v>
       </c>
       <c r="D2">
-        <v>-0.01653617465438647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01424675153137207</v>
+      </c>
+      <c r="E2">
+        <v>0.01318218665372551</v>
+      </c>
+      <c r="F2">
+        <v>-0.0145878402077343</v>
+      </c>
+      <c r="G2">
+        <v>-0.01049757924476054</v>
+      </c>
+      <c r="H2">
+        <v>0.04990877030688247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07363101387854737</v>
+        <v>0.08807135969964944</v>
       </c>
       <c r="C4">
-        <v>-0.0529279997759742</v>
+        <v>-0.0409379496192779</v>
       </c>
       <c r="D4">
-        <v>-0.08318277549853603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06633240401128528</v>
+      </c>
+      <c r="E4">
+        <v>0.006871966532255988</v>
+      </c>
+      <c r="F4">
+        <v>-0.03819932306669256</v>
+      </c>
+      <c r="G4">
+        <v>-0.002518591730102695</v>
+      </c>
+      <c r="H4">
+        <v>-0.0361590248915897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1095851250121502</v>
+        <v>0.1203521947801331</v>
       </c>
       <c r="C6">
-        <v>-0.05015748286295804</v>
+        <v>-0.03547556552404245</v>
       </c>
       <c r="D6">
-        <v>-0.00749239033359783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01347644228889025</v>
+      </c>
+      <c r="E6">
+        <v>-0.02306788053040947</v>
+      </c>
+      <c r="F6">
+        <v>-0.05573685978023544</v>
+      </c>
+      <c r="G6">
+        <v>-0.03367721534746052</v>
+      </c>
+      <c r="H6">
+        <v>0.1196977469737746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05376231338203014</v>
+        <v>0.06263104235202865</v>
       </c>
       <c r="C7">
-        <v>-0.02484658392199094</v>
+        <v>-0.01453039037378919</v>
       </c>
       <c r="D7">
-        <v>-0.04091192837569133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04934937954571818</v>
+      </c>
+      <c r="E7">
+        <v>0.03729051913694249</v>
+      </c>
+      <c r="F7">
+        <v>-0.03417805274041612</v>
+      </c>
+      <c r="G7">
+        <v>0.03354909160915029</v>
+      </c>
+      <c r="H7">
+        <v>-0.01187597806830275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03995033472716876</v>
+        <v>0.04105943510682004</v>
       </c>
       <c r="C8">
-        <v>-0.01414040905035665</v>
+        <v>-0.009556544420370447</v>
       </c>
       <c r="D8">
-        <v>-0.0638557053153547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02772462684376363</v>
+      </c>
+      <c r="E8">
+        <v>0.01969650135992475</v>
+      </c>
+      <c r="F8">
+        <v>-0.05774215085340994</v>
+      </c>
+      <c r="G8">
+        <v>-0.05078506263121459</v>
+      </c>
+      <c r="H8">
+        <v>-0.000973033571473709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06870280368480888</v>
+        <v>0.07936834918767663</v>
       </c>
       <c r="C9">
-        <v>-0.0396319247302255</v>
+        <v>-0.02753260950157229</v>
       </c>
       <c r="D9">
-        <v>-0.0723858398314218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06357774195395649</v>
+      </c>
+      <c r="E9">
+        <v>0.02756808705947176</v>
+      </c>
+      <c r="F9">
+        <v>-0.03803493905893058</v>
+      </c>
+      <c r="G9">
+        <v>-0.00878761722024949</v>
+      </c>
+      <c r="H9">
+        <v>-0.05240720622300189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03297692690292946</v>
+        <v>0.03637293141461868</v>
       </c>
       <c r="C10">
-        <v>-0.0261359241184039</v>
+        <v>-0.04378392309771064</v>
       </c>
       <c r="D10">
-        <v>0.1675851979822868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.168736432106455</v>
+      </c>
+      <c r="E10">
+        <v>0.03588389668510714</v>
+      </c>
+      <c r="F10">
+        <v>-0.04860198891741212</v>
+      </c>
+      <c r="G10">
+        <v>0.02070647584443867</v>
+      </c>
+      <c r="H10">
+        <v>0.02838456642177642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07305306529798855</v>
+        <v>0.07707408840257228</v>
       </c>
       <c r="C11">
-        <v>-0.04299607741249861</v>
+        <v>-0.02468121234150041</v>
       </c>
       <c r="D11">
-        <v>-0.05693753236938084</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06296157381644653</v>
+      </c>
+      <c r="E11">
+        <v>-0.005891743475152552</v>
+      </c>
+      <c r="F11">
+        <v>-0.0303547475708922</v>
+      </c>
+      <c r="G11">
+        <v>-0.003786182351286925</v>
+      </c>
+      <c r="H11">
+        <v>-0.08961848848676739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06070191754295935</v>
+        <v>0.06890665032229135</v>
       </c>
       <c r="C12">
-        <v>-0.05120625785463551</v>
+        <v>-0.03592730800786145</v>
       </c>
       <c r="D12">
-        <v>-0.0474717363232831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04922319333784922</v>
+      </c>
+      <c r="E12">
+        <v>0.0109968972575691</v>
+      </c>
+      <c r="F12">
+        <v>-0.02213175576535549</v>
+      </c>
+      <c r="G12">
+        <v>-0.004479670820275485</v>
+      </c>
+      <c r="H12">
+        <v>-0.04281897848202722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06287057330214929</v>
+        <v>0.06576894579761901</v>
       </c>
       <c r="C13">
-        <v>-0.0323213959183301</v>
+        <v>-0.01900081486703053</v>
       </c>
       <c r="D13">
-        <v>-0.05960858342679678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04206490832265029</v>
+      </c>
+      <c r="E13">
+        <v>0.01170424853785736</v>
+      </c>
+      <c r="F13">
+        <v>-0.007642938076511085</v>
+      </c>
+      <c r="G13">
+        <v>0.004879324548130557</v>
+      </c>
+      <c r="H13">
+        <v>-0.05144772860836484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03310987137142027</v>
+        <v>0.03985845235658197</v>
       </c>
       <c r="C14">
-        <v>-0.03078690213539055</v>
+        <v>-0.02775603591527767</v>
       </c>
       <c r="D14">
-        <v>-0.002312987799012892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01138763250793162</v>
+      </c>
+      <c r="E14">
+        <v>0.03185686286391185</v>
+      </c>
+      <c r="F14">
+        <v>-0.01489809358525741</v>
+      </c>
+      <c r="G14">
+        <v>-0.01039245581074704</v>
+      </c>
+      <c r="H14">
+        <v>-0.05985998507956298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04036762510172136</v>
+        <v>0.04001409317643591</v>
       </c>
       <c r="C15">
-        <v>-0.00852858540001109</v>
+        <v>-0.002931063261684783</v>
       </c>
       <c r="D15">
-        <v>-0.0199744247864195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006790229752909661</v>
+      </c>
+      <c r="E15">
+        <v>0.03594851358320977</v>
+      </c>
+      <c r="F15">
+        <v>-0.0006002315172670972</v>
+      </c>
+      <c r="G15">
+        <v>-0.02533933105718561</v>
+      </c>
+      <c r="H15">
+        <v>-0.03361382596809618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06167237539486654</v>
+        <v>0.07115654369050294</v>
       </c>
       <c r="C16">
-        <v>-0.0402427146926479</v>
+        <v>-0.02648143923324028</v>
       </c>
       <c r="D16">
-        <v>-0.04760302607013468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06130518535268922</v>
+      </c>
+      <c r="E16">
+        <v>0.003279917837673556</v>
+      </c>
+      <c r="F16">
+        <v>-0.02908078965446906</v>
+      </c>
+      <c r="G16">
+        <v>-0.0001060415367941746</v>
+      </c>
+      <c r="H16">
+        <v>-0.05951113969474456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06186379824671982</v>
+        <v>0.06296290385384794</v>
       </c>
       <c r="C20">
-        <v>-0.02321934524104422</v>
+        <v>-0.009503805891084469</v>
       </c>
       <c r="D20">
-        <v>-0.05108568557813038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03830027586162559</v>
+      </c>
+      <c r="E20">
+        <v>0.01635183212037247</v>
+      </c>
+      <c r="F20">
+        <v>-0.03071514954290001</v>
+      </c>
+      <c r="G20">
+        <v>-0.01493416040395333</v>
+      </c>
+      <c r="H20">
+        <v>-0.04658662483095868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02582514998655215</v>
+        <v>0.02541632311080044</v>
       </c>
       <c r="C21">
-        <v>0.003052704696656873</v>
+        <v>0.0101382524068936</v>
       </c>
       <c r="D21">
-        <v>-0.02598068276031708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02445127535237427</v>
+      </c>
+      <c r="E21">
+        <v>0.04368370860255742</v>
+      </c>
+      <c r="F21">
+        <v>0.01452135311396042</v>
+      </c>
+      <c r="G21">
+        <v>-0.01584877684905225</v>
+      </c>
+      <c r="H21">
+        <v>0.05631661611380085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07806195811562808</v>
+        <v>0.07093072489433076</v>
       </c>
       <c r="C22">
-        <v>-0.05865567008466183</v>
+        <v>-0.03645101131916577</v>
       </c>
       <c r="D22">
-        <v>-0.1211644456328268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0879528468135532</v>
+      </c>
+      <c r="E22">
+        <v>0.6055830702800863</v>
+      </c>
+      <c r="F22">
+        <v>0.1262883143360879</v>
+      </c>
+      <c r="G22">
+        <v>0.07888697142294245</v>
+      </c>
+      <c r="H22">
+        <v>0.171185753396318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.079036930498927</v>
+        <v>0.07176925731348711</v>
       </c>
       <c r="C23">
-        <v>-0.05738937432661843</v>
+        <v>-0.03500117847455213</v>
       </c>
       <c r="D23">
-        <v>-0.1225583881855374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08869863143348083</v>
+      </c>
+      <c r="E23">
+        <v>0.6046677921626349</v>
+      </c>
+      <c r="F23">
+        <v>0.1252314974939737</v>
+      </c>
+      <c r="G23">
+        <v>0.07802659687882402</v>
+      </c>
+      <c r="H23">
+        <v>0.1678199491354401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0747270985842398</v>
+        <v>0.08052992258235517</v>
       </c>
       <c r="C24">
-        <v>-0.05073212845558131</v>
+        <v>-0.03303987628148027</v>
       </c>
       <c r="D24">
-        <v>-0.0591525939919034</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06152813320349714</v>
+      </c>
+      <c r="E24">
+        <v>0.01588292897833611</v>
+      </c>
+      <c r="F24">
+        <v>-0.03870621957593895</v>
+      </c>
+      <c r="G24">
+        <v>-0.0153827124779607</v>
+      </c>
+      <c r="H24">
+        <v>-0.05023633736548327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07455636111310397</v>
+        <v>0.07872849992282224</v>
       </c>
       <c r="C25">
-        <v>-0.05409329115088696</v>
+        <v>-0.03610065554557407</v>
       </c>
       <c r="D25">
-        <v>-0.06654597385646312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0538230372028848</v>
+      </c>
+      <c r="E25">
+        <v>0.01946147434759499</v>
+      </c>
+      <c r="F25">
+        <v>-0.03041564246803301</v>
+      </c>
+      <c r="G25">
+        <v>-0.02230262035452055</v>
+      </c>
+      <c r="H25">
+        <v>-0.05739930849224875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04581270885357513</v>
+        <v>0.04773541407411143</v>
       </c>
       <c r="C26">
-        <v>-0.00895911487026017</v>
+        <v>-0.001518985859332702</v>
       </c>
       <c r="D26">
-        <v>-0.01118902991267745</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01683346185097365</v>
+      </c>
+      <c r="E26">
+        <v>0.04255089270486127</v>
+      </c>
+      <c r="F26">
+        <v>-0.0323939870315411</v>
+      </c>
+      <c r="G26">
+        <v>0.007356637352408914</v>
+      </c>
+      <c r="H26">
+        <v>-0.05077508301069331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05649177962378224</v>
+        <v>0.06500234113638316</v>
       </c>
       <c r="C28">
-        <v>-0.07019581736878669</v>
+        <v>-0.09539071441792737</v>
       </c>
       <c r="D28">
-        <v>0.3080468280410838</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3023817392650148</v>
+      </c>
+      <c r="E28">
+        <v>0.03347245820658187</v>
+      </c>
+      <c r="F28">
+        <v>-0.05555409533760333</v>
+      </c>
+      <c r="G28">
+        <v>-0.03722122187874469</v>
+      </c>
+      <c r="H28">
+        <v>0.04539328219405186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04204347197044453</v>
+        <v>0.04850678554287124</v>
       </c>
       <c r="C29">
-        <v>-0.02887362967350485</v>
+        <v>-0.02563142104002677</v>
       </c>
       <c r="D29">
-        <v>-0.00959205742225106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009245588841854974</v>
+      </c>
+      <c r="E29">
+        <v>0.06048670211340516</v>
+      </c>
+      <c r="F29">
+        <v>-0.01438484695407571</v>
+      </c>
+      <c r="G29">
+        <v>0.00697427776005171</v>
+      </c>
+      <c r="H29">
+        <v>-0.0707155260746713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1278909037879906</v>
+        <v>0.1297582287744798</v>
       </c>
       <c r="C30">
-        <v>-0.08618913477529942</v>
+        <v>-0.0602757822012935</v>
       </c>
       <c r="D30">
-        <v>-0.09833940584347289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07301606369294754</v>
+      </c>
+      <c r="E30">
+        <v>0.08296194894965508</v>
+      </c>
+      <c r="F30">
+        <v>-0.001723534756867382</v>
+      </c>
+      <c r="G30">
+        <v>-0.0777085535215611</v>
+      </c>
+      <c r="H30">
+        <v>0.04970546166799246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04471745996819208</v>
+        <v>0.04853575844635268</v>
       </c>
       <c r="C31">
-        <v>-0.02212727170107708</v>
+        <v>-0.01340636675258645</v>
       </c>
       <c r="D31">
-        <v>-0.02387995633098539</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03056899201520384</v>
+      </c>
+      <c r="E31">
+        <v>0.02437169065804836</v>
+      </c>
+      <c r="F31">
+        <v>-0.01272788464703357</v>
+      </c>
+      <c r="G31">
+        <v>0.02404148459647974</v>
+      </c>
+      <c r="H31">
+        <v>-0.06635616590823798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03695163297976365</v>
+        <v>0.03734915758073433</v>
       </c>
       <c r="C32">
-        <v>-0.02436993484580735</v>
+        <v>-0.02050472342524984</v>
       </c>
       <c r="D32">
-        <v>-0.02479186073044255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01241283952797838</v>
+      </c>
+      <c r="E32">
+        <v>0.05349683423525904</v>
+      </c>
+      <c r="F32">
+        <v>0.005000775958029199</v>
+      </c>
+      <c r="G32">
+        <v>-0.0275834492644367</v>
+      </c>
+      <c r="H32">
+        <v>-0.07153534493864129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08398938342187746</v>
+        <v>0.095929181915502</v>
       </c>
       <c r="C33">
-        <v>-0.03860807904704106</v>
+        <v>-0.02454874117930573</v>
       </c>
       <c r="D33">
-        <v>-0.06191988799701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04771973864203724</v>
+      </c>
+      <c r="E33">
+        <v>0.01519744142738738</v>
+      </c>
+      <c r="F33">
+        <v>-0.007663140027862953</v>
+      </c>
+      <c r="G33">
+        <v>0.006044703971578886</v>
+      </c>
+      <c r="H33">
+        <v>-0.05798380841091474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05875012733068539</v>
+        <v>0.06348680983979543</v>
       </c>
       <c r="C34">
-        <v>-0.02512421149718032</v>
+        <v>-0.01066305160243276</v>
       </c>
       <c r="D34">
-        <v>-0.05771445000951841</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05139634515061271</v>
+      </c>
+      <c r="E34">
+        <v>0.007016546855959474</v>
+      </c>
+      <c r="F34">
+        <v>-0.02049851151195507</v>
+      </c>
+      <c r="G34">
+        <v>-0.0008961370989890302</v>
+      </c>
+      <c r="H34">
+        <v>-0.06398987834695667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03700490802141355</v>
+        <v>0.03914630432923388</v>
       </c>
       <c r="C35">
-        <v>-0.007649187752004926</v>
+        <v>-0.002857579023811215</v>
       </c>
       <c r="D35">
-        <v>-0.017241783537583</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01160127126642062</v>
+      </c>
+      <c r="E35">
+        <v>0.02188858536776254</v>
+      </c>
+      <c r="F35">
+        <v>0.01449481666540326</v>
+      </c>
+      <c r="G35">
+        <v>0.005390520082923006</v>
+      </c>
+      <c r="H35">
+        <v>-0.01597859771971492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0225306626148721</v>
+        <v>0.02905765510169218</v>
       </c>
       <c r="C36">
-        <v>-0.01711794513444667</v>
+        <v>-0.01496352484493532</v>
       </c>
       <c r="D36">
-        <v>-0.02375144914306158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01698156636692172</v>
+      </c>
+      <c r="E36">
+        <v>0.02995310579103531</v>
+      </c>
+      <c r="F36">
+        <v>-0.02365194035191439</v>
+      </c>
+      <c r="G36">
+        <v>0.008658713621549685</v>
+      </c>
+      <c r="H36">
+        <v>-0.04208139571051071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04193198223680162</v>
+        <v>0.04446346826881232</v>
       </c>
       <c r="C38">
-        <v>-0.001150926302423111</v>
+        <v>0.004290051292545521</v>
       </c>
       <c r="D38">
-        <v>-0.01796850412830706</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01849496480966229</v>
+      </c>
+      <c r="E38">
+        <v>0.05151879184524543</v>
+      </c>
+      <c r="F38">
+        <v>0.004648016101829336</v>
+      </c>
+      <c r="G38">
+        <v>-0.007549533784623126</v>
+      </c>
+      <c r="H38">
+        <v>-0.03648740797311425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09232859534657344</v>
+        <v>0.1003420802354934</v>
       </c>
       <c r="C39">
-        <v>-0.06781791466957754</v>
+        <v>-0.04841670569870743</v>
       </c>
       <c r="D39">
-        <v>-0.05354095025011179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06435681943865641</v>
+      </c>
+      <c r="E39">
+        <v>0.008366659528116271</v>
+      </c>
+      <c r="F39">
+        <v>0.002601704662790634</v>
+      </c>
+      <c r="G39">
+        <v>-0.03766099133757062</v>
+      </c>
+      <c r="H39">
+        <v>-0.0498644275326199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07986290395926618</v>
+        <v>0.06884095131243248</v>
       </c>
       <c r="C40">
-        <v>-0.0330901409186202</v>
+        <v>-0.01041491978451562</v>
       </c>
       <c r="D40">
-        <v>0.0008866190668618913</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02067854981243789</v>
+      </c>
+      <c r="E40">
+        <v>0.03455369160965906</v>
+      </c>
+      <c r="F40">
+        <v>0.05029842330702883</v>
+      </c>
+      <c r="G40">
+        <v>-0.03966030987245849</v>
+      </c>
+      <c r="H40">
+        <v>0.07524068282783183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04250792951149074</v>
+        <v>0.04404046395333389</v>
       </c>
       <c r="C41">
-        <v>-0.004827848263990285</v>
+        <v>0.004820247368706641</v>
       </c>
       <c r="D41">
-        <v>-0.03393601270667836</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03445993089294121</v>
+      </c>
+      <c r="E41">
+        <v>0.001937285252517745</v>
+      </c>
+      <c r="F41">
+        <v>0.01602403084550541</v>
+      </c>
+      <c r="G41">
+        <v>-0.01182997336273096</v>
+      </c>
+      <c r="H41">
+        <v>-0.04054735836976481</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05127072879069862</v>
+        <v>0.05864710734874336</v>
       </c>
       <c r="C43">
-        <v>-0.02523628236345969</v>
+        <v>-0.0166058253568282</v>
       </c>
       <c r="D43">
-        <v>-0.01661528907051901</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02808510665080499</v>
+      </c>
+      <c r="E43">
+        <v>0.02252927351296533</v>
+      </c>
+      <c r="F43">
+        <v>-0.01171532524110502</v>
+      </c>
+      <c r="G43">
+        <v>0.01889534968082475</v>
+      </c>
+      <c r="H43">
+        <v>-0.06366160120246767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09684529611425953</v>
+        <v>0.09716634538871577</v>
       </c>
       <c r="C44">
-        <v>-0.08462269034186547</v>
+        <v>-0.06092712348894429</v>
       </c>
       <c r="D44">
-        <v>-0.07950675827483081</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05895075294891292</v>
+      </c>
+      <c r="E44">
+        <v>0.08155400635359665</v>
+      </c>
+      <c r="F44">
+        <v>-0.07300347293992192</v>
+      </c>
+      <c r="G44">
+        <v>-0.03271537029578438</v>
+      </c>
+      <c r="H44">
+        <v>-0.03540408527841431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02654299915555734</v>
+        <v>0.03452804578878407</v>
       </c>
       <c r="C46">
-        <v>-0.0158858223528258</v>
+        <v>-0.01163576893512553</v>
       </c>
       <c r="D46">
-        <v>-0.02520965352047183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03575216707257278</v>
+      </c>
+      <c r="E46">
+        <v>0.0341741982564861</v>
+      </c>
+      <c r="F46">
+        <v>-0.01359503481568957</v>
+      </c>
+      <c r="G46">
+        <v>0.008117039082838175</v>
+      </c>
+      <c r="H46">
+        <v>-0.03075512325584155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03089845448297407</v>
+        <v>0.0387055682500405</v>
       </c>
       <c r="C47">
-        <v>-0.02332483766889359</v>
+        <v>-0.01967040048897451</v>
       </c>
       <c r="D47">
-        <v>-0.007689034393978226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007535702517602893</v>
+      </c>
+      <c r="E47">
+        <v>0.04428686165029617</v>
+      </c>
+      <c r="F47">
+        <v>-0.01330460295160802</v>
+      </c>
+      <c r="G47">
+        <v>0.04317915054372941</v>
+      </c>
+      <c r="H47">
+        <v>-0.03170846852906009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0338567036271114</v>
+        <v>0.03855597863494713</v>
       </c>
       <c r="C48">
-        <v>-0.01729901327421653</v>
+        <v>-0.01071334119343965</v>
       </c>
       <c r="D48">
-        <v>-0.03141349050572766</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02002195635604252</v>
+      </c>
+      <c r="E48">
+        <v>0.03865459476371927</v>
+      </c>
+      <c r="F48">
+        <v>-0.01011612225476868</v>
+      </c>
+      <c r="G48">
+        <v>-0.01290316091860245</v>
+      </c>
+      <c r="H48">
+        <v>-0.03717111481907637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.162933886012367</v>
+        <v>0.1914803018105773</v>
       </c>
       <c r="C49">
-        <v>-0.04919636933230344</v>
+        <v>-0.03144077773684528</v>
       </c>
       <c r="D49">
-        <v>0.002528228475343083</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02854904969641077</v>
+      </c>
+      <c r="E49">
+        <v>-0.1623671786354124</v>
+      </c>
+      <c r="F49">
+        <v>-0.05640505502176481</v>
+      </c>
+      <c r="G49">
+        <v>0.06881505631552484</v>
+      </c>
+      <c r="H49">
+        <v>0.2261105444741146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03972453426052841</v>
+        <v>0.0457303675276482</v>
       </c>
       <c r="C50">
-        <v>-0.0193380735711017</v>
+        <v>-0.01293656791198279</v>
       </c>
       <c r="D50">
-        <v>-0.04131941041932846</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0338700978174198</v>
+      </c>
+      <c r="E50">
+        <v>0.04152730383043496</v>
+      </c>
+      <c r="F50">
+        <v>-0.01509799445338038</v>
+      </c>
+      <c r="G50">
+        <v>0.02189754618875208</v>
+      </c>
+      <c r="H50">
+        <v>-0.06684777792735642</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02788751462683765</v>
+        <v>0.02939752450413544</v>
       </c>
       <c r="C51">
-        <v>-0.009388239534636647</v>
+        <v>-0.003084351831969244</v>
       </c>
       <c r="D51">
-        <v>-0.009942507429872717</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01212756111638322</v>
+      </c>
+      <c r="E51">
+        <v>0.01124796804037089</v>
+      </c>
+      <c r="F51">
+        <v>-0.01474874752938336</v>
+      </c>
+      <c r="G51">
+        <v>-8.521371432271748e-05</v>
+      </c>
+      <c r="H51">
+        <v>-0.000114754510938425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1547804966428828</v>
+        <v>0.162778223352842</v>
       </c>
       <c r="C53">
-        <v>-0.07137836423696574</v>
+        <v>-0.04974272724817559</v>
       </c>
       <c r="D53">
-        <v>-0.01228787827707046</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02328032218003371</v>
+      </c>
+      <c r="E53">
+        <v>-0.02926601200427496</v>
+      </c>
+      <c r="F53">
+        <v>-0.009658188872955022</v>
+      </c>
+      <c r="G53">
+        <v>0.02492115430761322</v>
+      </c>
+      <c r="H53">
+        <v>-0.1798246564506544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05697972867953018</v>
+        <v>0.05820126135837565</v>
       </c>
       <c r="C54">
-        <v>-0.02236071353351814</v>
+        <v>-0.01265897338095787</v>
       </c>
       <c r="D54">
-        <v>-0.02209648734830685</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01557364957887298</v>
+      </c>
+      <c r="E54">
+        <v>0.04515492993272868</v>
+      </c>
+      <c r="F54">
+        <v>-0.004743528292719302</v>
+      </c>
+      <c r="G54">
+        <v>-0.02225049333813928</v>
+      </c>
+      <c r="H54">
+        <v>-0.04997044279092746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09919023715412524</v>
+        <v>0.1046390077815295</v>
       </c>
       <c r="C55">
-        <v>-0.04817142375353618</v>
+        <v>-0.03323102691741629</v>
       </c>
       <c r="D55">
-        <v>-0.02079952166827563</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02342753960278296</v>
+      </c>
+      <c r="E55">
+        <v>0.007157887121134379</v>
+      </c>
+      <c r="F55">
+        <v>-0.01326990605625445</v>
+      </c>
+      <c r="G55">
+        <v>0.01490040590938733</v>
+      </c>
+      <c r="H55">
+        <v>-0.1559366384766094</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1512880995280376</v>
+        <v>0.1615342886199049</v>
       </c>
       <c r="C56">
-        <v>-0.08299777838931821</v>
+        <v>-0.05939886305453587</v>
       </c>
       <c r="D56">
-        <v>-0.02082894764901332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02739009839772524</v>
+      </c>
+      <c r="E56">
+        <v>-0.02165217102223624</v>
+      </c>
+      <c r="F56">
+        <v>-0.02894156611821993</v>
+      </c>
+      <c r="G56">
+        <v>0.03848923112687684</v>
+      </c>
+      <c r="H56">
+        <v>-0.1829459306461967</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1312159731934269</v>
+        <v>0.09943041937795268</v>
       </c>
       <c r="C58">
-        <v>0.005162416574932172</v>
+        <v>0.04614551174206603</v>
       </c>
       <c r="D58">
-        <v>-0.02707470202372552</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03268757616720546</v>
+      </c>
+      <c r="E58">
+        <v>0.1441157999223297</v>
+      </c>
+      <c r="F58">
+        <v>-0.007665215061406023</v>
+      </c>
+      <c r="G58">
+        <v>0.01867682141682961</v>
+      </c>
+      <c r="H58">
+        <v>0.1947309846670452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1270045769862448</v>
+        <v>0.1405994987380317</v>
       </c>
       <c r="C59">
-        <v>-0.07677353487998402</v>
+        <v>-0.1018039813973196</v>
       </c>
       <c r="D59">
-        <v>0.3716216966078975</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3604235007050128</v>
+      </c>
+      <c r="E59">
+        <v>0.027225161247676</v>
+      </c>
+      <c r="F59">
+        <v>-0.009892596684662943</v>
+      </c>
+      <c r="G59">
+        <v>0.0131324796909126</v>
+      </c>
+      <c r="H59">
+        <v>-0.001824335318636651</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2073085801733164</v>
+        <v>0.2363827450123418</v>
       </c>
       <c r="C60">
-        <v>-0.08938940517606121</v>
+        <v>-0.06211565189528732</v>
       </c>
       <c r="D60">
-        <v>-0.02828473406860821</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04524676580743183</v>
+      </c>
+      <c r="E60">
+        <v>-0.1053629548038074</v>
+      </c>
+      <c r="F60">
+        <v>-0.05359745437148834</v>
+      </c>
+      <c r="G60">
+        <v>-0.01835878473586181</v>
+      </c>
+      <c r="H60">
+        <v>0.1466133304387864</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08289336626584927</v>
+        <v>0.08943548066238234</v>
       </c>
       <c r="C61">
-        <v>-0.04865859312906827</v>
+        <v>-0.03472136726783454</v>
       </c>
       <c r="D61">
-        <v>-0.04242107895128032</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04169782398402595</v>
+      </c>
+      <c r="E61">
+        <v>0.002244818365112528</v>
+      </c>
+      <c r="F61">
+        <v>-0.003192894424687237</v>
+      </c>
+      <c r="G61">
+        <v>-0.002747417348412503</v>
+      </c>
+      <c r="H61">
+        <v>-0.06310730138861323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1308140268370945</v>
+        <v>0.1380774640443008</v>
       </c>
       <c r="C62">
-        <v>-0.05881984308597515</v>
+        <v>-0.03612410281450382</v>
       </c>
       <c r="D62">
-        <v>-0.02319292223278162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03701587949720344</v>
+      </c>
+      <c r="E62">
+        <v>-0.05480631408115062</v>
+      </c>
+      <c r="F62">
+        <v>-0.004923391612139089</v>
+      </c>
+      <c r="G62">
+        <v>-0.005874680975141894</v>
+      </c>
+      <c r="H62">
+        <v>-0.1793302877637696</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05229672837236438</v>
+        <v>0.05165949432019195</v>
       </c>
       <c r="C63">
-        <v>-0.02297637733689672</v>
+        <v>-0.01372104519570564</v>
       </c>
       <c r="D63">
-        <v>-0.02308814631796861</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02118895040408113</v>
+      </c>
+      <c r="E63">
+        <v>0.04887014131323239</v>
+      </c>
+      <c r="F63">
+        <v>0.004099372634894086</v>
+      </c>
+      <c r="G63">
+        <v>-0.01735741935246643</v>
+      </c>
+      <c r="H63">
+        <v>-0.04467086885952172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1039393195399207</v>
+        <v>0.1071829947930216</v>
       </c>
       <c r="C64">
-        <v>-0.0301004151444938</v>
+        <v>-0.01478362952734503</v>
       </c>
       <c r="D64">
-        <v>-0.0402616065145465</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03259503678569276</v>
+      </c>
+      <c r="E64">
+        <v>0.0317733003935153</v>
+      </c>
+      <c r="F64">
+        <v>-0.04165329814689712</v>
+      </c>
+      <c r="G64">
+        <v>-0.05057684407270822</v>
+      </c>
+      <c r="H64">
+        <v>-0.04702610913270248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1273717276112792</v>
+        <v>0.1281934701779188</v>
       </c>
       <c r="C65">
-        <v>-0.05766085931083606</v>
+        <v>-0.0396391640263025</v>
       </c>
       <c r="D65">
-        <v>-0.0003471372167162505</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01080170940039715</v>
+      </c>
+      <c r="E65">
+        <v>-0.0046065732134035</v>
+      </c>
+      <c r="F65">
+        <v>-0.05576888110834875</v>
+      </c>
+      <c r="G65">
+        <v>-0.05379605744088906</v>
+      </c>
+      <c r="H65">
+        <v>0.1500727679744074</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1479770249879701</v>
+        <v>0.1520879606674522</v>
       </c>
       <c r="C66">
-        <v>-0.0661365177361791</v>
+        <v>-0.0369684080229104</v>
       </c>
       <c r="D66">
-        <v>-0.1034430733368541</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09967281420046634</v>
+      </c>
+      <c r="E66">
+        <v>-0.01911994573744666</v>
+      </c>
+      <c r="F66">
+        <v>-0.005812076789391862</v>
+      </c>
+      <c r="G66">
+        <v>-0.04255582982574947</v>
+      </c>
+      <c r="H66">
+        <v>-0.1171842429621549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07493152041342477</v>
+        <v>0.08475201318684052</v>
       </c>
       <c r="C67">
-        <v>-0.008644512149762917</v>
+        <v>-0.0004285955070493345</v>
       </c>
       <c r="D67">
-        <v>-0.02215745111419333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02995630343687209</v>
+      </c>
+      <c r="E67">
+        <v>0.01772544515380561</v>
+      </c>
+      <c r="F67">
+        <v>-0.01964406634260869</v>
+      </c>
+      <c r="G67">
+        <v>0.00955185636765611</v>
+      </c>
+      <c r="H67">
+        <v>-0.04020203884305541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0615627874659204</v>
+        <v>0.06044221423639501</v>
       </c>
       <c r="C68">
-        <v>-0.04995555114700963</v>
+        <v>-0.07139464981397403</v>
       </c>
       <c r="D68">
-        <v>0.2557930954746973</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2665256174906749</v>
+      </c>
+      <c r="E68">
+        <v>0.03912332550071629</v>
+      </c>
+      <c r="F68">
+        <v>-0.01413233312153941</v>
+      </c>
+      <c r="G68">
+        <v>0.008301955803103295</v>
+      </c>
+      <c r="H68">
+        <v>-0.006591135560061153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05139140163914404</v>
+        <v>0.05294167507743836</v>
       </c>
       <c r="C69">
-        <v>-0.01459825751216785</v>
+        <v>-0.004607472322641892</v>
       </c>
       <c r="D69">
-        <v>-0.02236083250541411</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0164636147748509</v>
+      </c>
+      <c r="E69">
+        <v>0.02589358158879452</v>
+      </c>
+      <c r="F69">
+        <v>0.01068469105358835</v>
+      </c>
+      <c r="G69">
+        <v>0.02211196914481556</v>
+      </c>
+      <c r="H69">
+        <v>-0.05199304592570116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.003917738113795833</v>
+        <v>0.02795258841547419</v>
       </c>
       <c r="C70">
-        <v>0.008753121816653289</v>
+        <v>0.003482228068768353</v>
       </c>
       <c r="D70">
-        <v>0.006532414261517265</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.002799074949239564</v>
+      </c>
+      <c r="E70">
+        <v>-0.02641042763698485</v>
+      </c>
+      <c r="F70">
+        <v>-0.01170624301638798</v>
+      </c>
+      <c r="G70">
+        <v>0.01940849734599231</v>
+      </c>
+      <c r="H70">
+        <v>0.02452663715193475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06105061248833289</v>
+        <v>0.0631296374339973</v>
       </c>
       <c r="C71">
-        <v>-0.05015987555934321</v>
+        <v>-0.07732364446058394</v>
       </c>
       <c r="D71">
-        <v>0.2923401911412508</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2916166202929046</v>
+      </c>
+      <c r="E71">
+        <v>0.03473079776945173</v>
+      </c>
+      <c r="F71">
+        <v>-0.04298658986559133</v>
+      </c>
+      <c r="G71">
+        <v>-0.002747048951037597</v>
+      </c>
+      <c r="H71">
+        <v>-0.00965348321421052</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1425307371365399</v>
+        <v>0.1452152543276426</v>
       </c>
       <c r="C72">
-        <v>-0.05778691266350616</v>
+        <v>-0.03305253568527707</v>
       </c>
       <c r="D72">
-        <v>-0.00787130474476062</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.00245148511606968</v>
+      </c>
+      <c r="E72">
+        <v>-0.0754363087658086</v>
+      </c>
+      <c r="F72">
+        <v>0.1699218936664617</v>
+      </c>
+      <c r="G72">
+        <v>-0.1148235057637696</v>
+      </c>
+      <c r="H72">
+        <v>-0.01230427101959498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2854094699988536</v>
+        <v>0.2892961818356318</v>
       </c>
       <c r="C73">
-        <v>-0.09303246302473726</v>
+        <v>-0.03557108943655982</v>
       </c>
       <c r="D73">
-        <v>-0.0511863460138053</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09213235685629345</v>
+      </c>
+      <c r="E73">
+        <v>-0.2244593487978636</v>
+      </c>
+      <c r="F73">
+        <v>-0.08669968968746974</v>
+      </c>
+      <c r="G73">
+        <v>0.132945488457693</v>
+      </c>
+      <c r="H73">
+        <v>0.4903459201510472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08210116129561659</v>
+        <v>0.09113049380073521</v>
       </c>
       <c r="C74">
-        <v>-0.07472983456889927</v>
+        <v>-0.05849388056089358</v>
       </c>
       <c r="D74">
-        <v>-0.01036789872807456</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03439817553272116</v>
+      </c>
+      <c r="E74">
+        <v>-0.001990785430757209</v>
+      </c>
+      <c r="F74">
+        <v>0.002047076318147184</v>
+      </c>
+      <c r="G74">
+        <v>0.05287095494799668</v>
+      </c>
+      <c r="H74">
+        <v>-0.1183707214125354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09613123682614341</v>
+        <v>0.1012817724692311</v>
       </c>
       <c r="C75">
-        <v>-0.04660156936000379</v>
+        <v>-0.0257915220672821</v>
       </c>
       <c r="D75">
-        <v>-0.01043977596811508</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01752394348121443</v>
+      </c>
+      <c r="E75">
+        <v>0.002301537945101283</v>
+      </c>
+      <c r="F75">
+        <v>-0.01910724056775161</v>
+      </c>
+      <c r="G75">
+        <v>0.02820508551841264</v>
+      </c>
+      <c r="H75">
+        <v>-0.1091029848733143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.131200273157532</v>
+        <v>0.1427302416244084</v>
       </c>
       <c r="C76">
-        <v>-0.07699660272002569</v>
+        <v>-0.05628153706095999</v>
       </c>
       <c r="D76">
-        <v>-0.04659882413087325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0488872776739899</v>
+      </c>
+      <c r="E76">
+        <v>0.01442316224647641</v>
+      </c>
+      <c r="F76">
+        <v>-0.04732993198623602</v>
+      </c>
+      <c r="G76">
+        <v>0.02249195519293179</v>
+      </c>
+      <c r="H76">
+        <v>-0.2048823425515541</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1185063242104363</v>
+        <v>0.1065279583927658</v>
       </c>
       <c r="C77">
-        <v>-0.007483333234583561</v>
+        <v>0.0209580598092044</v>
       </c>
       <c r="D77">
-        <v>-0.07839975571370514</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.033860643881437</v>
+      </c>
+      <c r="E77">
+        <v>0.02241984366334436</v>
+      </c>
+      <c r="F77">
+        <v>-0.09732943984796415</v>
+      </c>
+      <c r="G77">
+        <v>-0.8959714989126745</v>
+      </c>
+      <c r="H77">
+        <v>0.09566861342485643</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.106551491788877</v>
+        <v>0.1447501509665217</v>
       </c>
       <c r="C78">
-        <v>-0.03488161257983092</v>
+        <v>-0.02962772300997078</v>
       </c>
       <c r="D78">
-        <v>-0.0884851541060256</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08377200342349519</v>
+      </c>
+      <c r="E78">
+        <v>0.05366095314599741</v>
+      </c>
+      <c r="F78">
+        <v>-0.05679628410262184</v>
+      </c>
+      <c r="G78">
+        <v>-0.08047132084024437</v>
+      </c>
+      <c r="H78">
+        <v>0.02193874168918415</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1482421906462578</v>
+        <v>0.1505297620384821</v>
       </c>
       <c r="C79">
-        <v>-0.0660322498722897</v>
+        <v>-0.0376151686253627</v>
       </c>
       <c r="D79">
-        <v>-0.02542188786828605</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03046758726231141</v>
+      </c>
+      <c r="E79">
+        <v>-0.01605247981233655</v>
+      </c>
+      <c r="F79">
+        <v>-0.01808108568179846</v>
+      </c>
+      <c r="G79">
+        <v>0.04498552999497304</v>
+      </c>
+      <c r="H79">
+        <v>-0.1630079173736116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04190214109604201</v>
+        <v>0.0427556281562714</v>
       </c>
       <c r="C80">
-        <v>-0.01878788620888028</v>
+        <v>-0.01327147702804851</v>
       </c>
       <c r="D80">
-        <v>-0.02636222079386111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01251367324993491</v>
+      </c>
+      <c r="E80">
+        <v>-0.02943371664484305</v>
+      </c>
+      <c r="F80">
+        <v>-0.006027755716310138</v>
+      </c>
+      <c r="G80">
+        <v>0.02079792052255268</v>
+      </c>
+      <c r="H80">
+        <v>-0.03938695129965642</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1187307387108911</v>
+        <v>0.1208032677249041</v>
       </c>
       <c r="C81">
-        <v>-0.05835838306842345</v>
+        <v>-0.03580613937280984</v>
       </c>
       <c r="D81">
-        <v>-0.0323314888803984</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02631138450784321</v>
+      </c>
+      <c r="E81">
+        <v>0.008555312512935433</v>
+      </c>
+      <c r="F81">
+        <v>-0.01992361612227935</v>
+      </c>
+      <c r="G81">
+        <v>0.0610299422675648</v>
+      </c>
+      <c r="H81">
+        <v>-0.1474697744282652</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1307719512961189</v>
+        <v>0.131809534555164</v>
       </c>
       <c r="C82">
-        <v>-0.07117274639718527</v>
+        <v>-0.04933752746481017</v>
       </c>
       <c r="D82">
-        <v>-0.01993153892077236</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03048697946584606</v>
+      </c>
+      <c r="E82">
+        <v>-0.02169461890672043</v>
+      </c>
+      <c r="F82">
+        <v>-0.04716367156276478</v>
+      </c>
+      <c r="G82">
+        <v>0.05366820757709244</v>
+      </c>
+      <c r="H82">
+        <v>-0.2080660341219352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0725833336088321</v>
+        <v>0.08454704420161117</v>
       </c>
       <c r="C83">
-        <v>0.02039004101833498</v>
+        <v>0.03209139936435346</v>
       </c>
       <c r="D83">
-        <v>-0.01960836825874294</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02764220820211513</v>
+      </c>
+      <c r="E83">
+        <v>0.0194916086172614</v>
+      </c>
+      <c r="F83">
+        <v>-0.05768754717625517</v>
+      </c>
+      <c r="G83">
+        <v>0.06769733553540805</v>
+      </c>
+      <c r="H83">
+        <v>0.04184961672597389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02960904428209813</v>
+        <v>0.03707824348909992</v>
       </c>
       <c r="C84">
-        <v>-0.02749106521343798</v>
+        <v>-0.021876007295311</v>
       </c>
       <c r="D84">
-        <v>-0.02508810645859772</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03296678562985538</v>
+      </c>
+      <c r="E84">
+        <v>0.03024705922083507</v>
+      </c>
+      <c r="F84">
+        <v>0.05282538720410868</v>
+      </c>
+      <c r="G84">
+        <v>0.06365103027952118</v>
+      </c>
+      <c r="H84">
+        <v>-0.006632188960622323</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1196448684574939</v>
+        <v>0.1220981663938025</v>
       </c>
       <c r="C85">
-        <v>-0.0448458739842313</v>
+        <v>-0.02342929552556689</v>
       </c>
       <c r="D85">
-        <v>-0.02505634558137194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02356094548726572</v>
+      </c>
+      <c r="E85">
+        <v>0.01700739204382789</v>
+      </c>
+      <c r="F85">
+        <v>-0.04691680771437994</v>
+      </c>
+      <c r="G85">
+        <v>0.04165998259214861</v>
+      </c>
+      <c r="H85">
+        <v>-0.1534546836143414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05587086365971949</v>
+        <v>0.05911020698874245</v>
       </c>
       <c r="C86">
-        <v>-0.02140320982145807</v>
+        <v>-0.01051518897172707</v>
       </c>
       <c r="D86">
-        <v>-0.03631792733965231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03273844591614567</v>
+      </c>
+      <c r="E86">
+        <v>0.05464422262613081</v>
+      </c>
+      <c r="F86">
+        <v>-0.02904738316517734</v>
+      </c>
+      <c r="G86">
+        <v>0.02931357928877269</v>
+      </c>
+      <c r="H86">
+        <v>0.008063522319913214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1200015461335094</v>
+        <v>0.122726364731402</v>
       </c>
       <c r="C87">
-        <v>-0.06333457247334318</v>
+        <v>-0.03166580861693809</v>
       </c>
       <c r="D87">
-        <v>-0.08080682466895062</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07435896388637901</v>
+      </c>
+      <c r="E87">
+        <v>0.01367713507921837</v>
+      </c>
+      <c r="F87">
+        <v>-0.009564637149981887</v>
+      </c>
+      <c r="G87">
+        <v>-0.1290079888966108</v>
+      </c>
+      <c r="H87">
+        <v>0.03250884740366393</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05366949824844478</v>
+        <v>0.06106928435988349</v>
       </c>
       <c r="C88">
-        <v>-0.02864150153872082</v>
+        <v>-0.01944767024883494</v>
       </c>
       <c r="D88">
-        <v>-0.0219565410501709</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03572741769375345</v>
+      </c>
+      <c r="E88">
+        <v>0.01549456265144213</v>
+      </c>
+      <c r="F88">
+        <v>-0.01084692651579441</v>
+      </c>
+      <c r="G88">
+        <v>-0.002503663797526387</v>
+      </c>
+      <c r="H88">
+        <v>-0.05119225815335229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09152635315347486</v>
+        <v>0.09908064862718918</v>
       </c>
       <c r="C89">
-        <v>-0.07167251878749319</v>
+        <v>-0.1013580825172783</v>
       </c>
       <c r="D89">
-        <v>0.3326801445264859</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.34858781177848</v>
+      </c>
+      <c r="E89">
+        <v>0.0693107187994664</v>
+      </c>
+      <c r="F89">
+        <v>-0.08244818177486143</v>
+      </c>
+      <c r="G89">
+        <v>0.01720785438475869</v>
+      </c>
+      <c r="H89">
+        <v>-0.005210339993402939</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07743095360675897</v>
+        <v>0.08141457304600692</v>
       </c>
       <c r="C90">
-        <v>-0.05957322497180369</v>
+        <v>-0.08364377755300266</v>
       </c>
       <c r="D90">
-        <v>0.3101992238630444</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3015908513704111</v>
+      </c>
+      <c r="E90">
+        <v>0.06792716958755336</v>
+      </c>
+      <c r="F90">
+        <v>-0.006098990168323383</v>
+      </c>
+      <c r="G90">
+        <v>-0.0002513182997797381</v>
+      </c>
+      <c r="H90">
+        <v>-0.004382389050711987</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08847143813081944</v>
+        <v>0.09084842706489391</v>
       </c>
       <c r="C91">
-        <v>-0.05013957249108717</v>
+        <v>-0.02999261164702021</v>
       </c>
       <c r="D91">
-        <v>-0.0267426364243771</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03319370657687436</v>
+      </c>
+      <c r="E91">
+        <v>0.006569587678037712</v>
+      </c>
+      <c r="F91">
+        <v>-0.002753809131504105</v>
+      </c>
+      <c r="G91">
+        <v>0.04957569689290395</v>
+      </c>
+      <c r="H91">
+        <v>-0.08361230542085572</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07812713712622703</v>
+        <v>0.08173318147133676</v>
       </c>
       <c r="C92">
-        <v>-0.07493407638594091</v>
+        <v>-0.1028869573209607</v>
       </c>
       <c r="D92">
-        <v>0.3320853346549786</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3371862965830813</v>
+      </c>
+      <c r="E92">
+        <v>0.0394461083222673</v>
+      </c>
+      <c r="F92">
+        <v>-0.04095420140258761</v>
+      </c>
+      <c r="G92">
+        <v>-0.01541956218486607</v>
+      </c>
+      <c r="H92">
+        <v>-0.01877660660051453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06915508824389818</v>
+        <v>0.07766946046562558</v>
       </c>
       <c r="C93">
-        <v>-0.0662845163617152</v>
+        <v>-0.09598665138202496</v>
       </c>
       <c r="D93">
-        <v>0.3074931624828403</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3017840002578284</v>
+      </c>
+      <c r="E93">
+        <v>0.02330990158344476</v>
+      </c>
+      <c r="F93">
+        <v>-0.03342335651614695</v>
+      </c>
+      <c r="G93">
+        <v>-0.02203814106665797</v>
+      </c>
+      <c r="H93">
+        <v>0.01162425441963904</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1346181386685019</v>
+        <v>0.1291717907193137</v>
       </c>
       <c r="C94">
-        <v>-0.04332919246260161</v>
+        <v>-0.0131618091280883</v>
       </c>
       <c r="D94">
-        <v>-0.04250386538851689</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04755306731678059</v>
+      </c>
+      <c r="E94">
+        <v>-0.01850807196856882</v>
+      </c>
+      <c r="F94">
+        <v>-0.01198406466016704</v>
+      </c>
+      <c r="G94">
+        <v>0.06628016529636202</v>
+      </c>
+      <c r="H94">
+        <v>-0.09822498937252519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1247749789902647</v>
+        <v>0.1278403998852288</v>
       </c>
       <c r="C95">
-        <v>-0.02611534434936361</v>
+        <v>0.001492354584195532</v>
       </c>
       <c r="D95">
-        <v>-0.05229918398807143</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06411460412883295</v>
+      </c>
+      <c r="E95">
+        <v>0.006224491019768302</v>
+      </c>
+      <c r="F95">
+        <v>-0.03436096248044123</v>
+      </c>
+      <c r="G95">
+        <v>-0.02139013178623731</v>
+      </c>
+      <c r="H95">
+        <v>0.0543023995606748</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2208126920820509</v>
+        <v>0.2027285226146849</v>
       </c>
       <c r="C97">
-        <v>-0.0402558341235934</v>
+        <v>0.004018629659080284</v>
       </c>
       <c r="D97">
-        <v>0.1040517460833324</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.07405156433346682</v>
+      </c>
+      <c r="E97">
+        <v>-0.1557523741655643</v>
+      </c>
+      <c r="F97">
+        <v>0.9151962301193289</v>
+      </c>
+      <c r="G97">
+        <v>-0.07025237588526526</v>
+      </c>
+      <c r="H97">
+        <v>-0.01380975797936642</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2500787978968937</v>
+        <v>0.2762044775681876</v>
       </c>
       <c r="C98">
-        <v>-0.05877280110809616</v>
+        <v>-0.02225314535918013</v>
       </c>
       <c r="D98">
-        <v>-0.03494329156317968</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05197848157083399</v>
+      </c>
+      <c r="E98">
+        <v>-0.1923484376572022</v>
+      </c>
+      <c r="F98">
+        <v>-0.05184729435973331</v>
+      </c>
+      <c r="G98">
+        <v>0.2276357696586062</v>
+      </c>
+      <c r="H98">
+        <v>0.2794146291946449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.3993627214951684</v>
+        <v>0.2702903569659245</v>
       </c>
       <c r="C99">
-        <v>0.8989035742772162</v>
+        <v>0.9282229210909042</v>
       </c>
       <c r="D99">
-        <v>0.05842463089103014</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.178153427811793</v>
+      </c>
+      <c r="E99">
+        <v>0.06867265506831471</v>
+      </c>
+      <c r="F99">
+        <v>-0.06122836730366306</v>
+      </c>
+      <c r="G99">
+        <v>0.02621099446540155</v>
+      </c>
+      <c r="H99">
+        <v>-0.07090412228292138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04187787443221341</v>
+        <v>0.04843480397115937</v>
       </c>
       <c r="C101">
-        <v>-0.02900101951943719</v>
+        <v>-0.02586972544266297</v>
       </c>
       <c r="D101">
-        <v>-0.01020955451540284</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009417852556599457</v>
+      </c>
+      <c r="E101">
+        <v>0.06045821532185779</v>
+      </c>
+      <c r="F101">
+        <v>-0.01406716751520936</v>
+      </c>
+      <c r="G101">
+        <v>0.007372160980840469</v>
+      </c>
+      <c r="H101">
+        <v>-0.06956458883761335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
